--- a/ParametricGraph/BenchParetto.xlsx
+++ b/ParametricGraph/BenchParetto.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Параметрическая функция</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>Прибор 2,6</t>
+  </si>
+  <si>
+    <t>кол-во целевых функций</t>
   </si>
 </sst>
 </file>
@@ -427,7 +430,7 @@
   <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -443,7 +446,7 @@
     <col min="15" max="15" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -453,7 +456,9 @@
       <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1"/>
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="J1" s="1" t="s">
         <v>3</v>
       </c>
@@ -483,6 +488,9 @@
       </c>
       <c r="C2">
         <v>1</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
       </c>
       <c r="O2">
         <v>1</v>

--- a/ParametricGraph/BenchParetto.xlsx
+++ b/ParametricGraph/BenchParetto.xlsx
@@ -16,60 +16,54 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+  <si>
+    <t>Оптимальное решение</t>
+  </si>
+  <si>
+    <t>Прибор 1,1</t>
+  </si>
+  <si>
+    <t>Прибор 1,2</t>
+  </si>
+  <si>
+    <t>Прибор 1,3</t>
+  </si>
+  <si>
+    <t>Прибор 1,4</t>
+  </si>
+  <si>
+    <t>Прибор 1,5</t>
+  </si>
+  <si>
+    <t>Прибор 1,6</t>
+  </si>
+  <si>
+    <t>Прибор 2,1</t>
+  </si>
+  <si>
+    <t>Прибор 2,2</t>
+  </si>
+  <si>
+    <t>Прибор 2,3</t>
+  </si>
+  <si>
+    <t>Прибор 2,4</t>
+  </si>
+  <si>
+    <t>Прибор 2,5</t>
+  </si>
+  <si>
+    <t>Прибор 2,6</t>
+  </si>
   <si>
     <t>Параметрическая функция</t>
   </si>
   <si>
-    <t>Параметрический граф</t>
-  </si>
-  <si>
     <t>Количество  решений</t>
   </si>
   <si>
-    <t>Оптимальное решение</t>
-  </si>
-  <si>
     <t>Максимизация</t>
-  </si>
-  <si>
-    <t>Прибор 1,1</t>
-  </si>
-  <si>
-    <t>Прибор 1,2</t>
-  </si>
-  <si>
-    <t>Прибор 1,3</t>
-  </si>
-  <si>
-    <t>Прибор 1,4</t>
-  </si>
-  <si>
-    <t>Прибор 1,5</t>
-  </si>
-  <si>
-    <t>Прибор 1,6</t>
-  </si>
-  <si>
-    <t>Прибор 2,1</t>
-  </si>
-  <si>
-    <t>Прибор 2,2</t>
-  </si>
-  <si>
-    <t>Прибор 2,3</t>
-  </si>
-  <si>
-    <t>Прибор 2,4</t>
-  </si>
-  <si>
-    <t>Прибор 2,5</t>
-  </si>
-  <si>
-    <t>Прибор 2,6</t>
-  </si>
-  <si>
-    <t>кол-во целевых функций</t>
   </si>
 </sst>
 </file>
@@ -430,7 +424,7 @@
   <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -446,21 +440,19 @@
     <col min="15" max="15" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D1" s="1"/>
       <c r="J1" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K1">
         <v>106.763206872525</v>
@@ -497,9 +489,6 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
       <c r="O3">
         <f>-100*POWER(O2-POWER(O1,2),2)-POWER(1-O1,2)</f>
         <v>0</v>
@@ -507,40 +496,40 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
+      <c r="F4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
+      <c r="G4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" t="s">
+      <c r="H4" t="s">
         <v>8</v>
       </c>
-      <c r="E4" t="s">
+      <c r="I4" t="s">
         <v>9</v>
       </c>
-      <c r="F4" t="s">
+      <c r="J4" t="s">
         <v>10</v>
       </c>
-      <c r="G4" t="s">
+      <c r="K4" t="s">
         <v>11</v>
       </c>
-      <c r="H4" t="s">
+      <c r="L4" t="s">
         <v>12</v>
-      </c>
-      <c r="I4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" t="s">
-        <v>15</v>
-      </c>
-      <c r="L4" t="s">
-        <v>16</v>
       </c>
       <c r="N4" s="2"/>
     </row>

--- a/ParametricGraph/BenchParetto.xlsx
+++ b/ParametricGraph/BenchParetto.xlsx
@@ -424,7 +424,7 @@
   <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -482,7 +482,7 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O2">
         <v>1</v>
